--- a/biology/Zoologie/Ceratioidea/Ceratioidea.xlsx
+++ b/biology/Zoologie/Ceratioidea/Ceratioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceratioidea ou Ceratioïdes sont une superfamille de poissons abyssaux de l'ordre des Lophiiformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de cette superfamille se rencontrent dans tous les océans, à des profondeurs supérieures à 300 m.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons présentent un dimorphisme sexuel extrême avec des mâles très petits (généralement entre 6 et 10 mm) et des femelles géantes, parfois plus de soixante fois plus grandes que les mâles et pesant un demi-million de fois plus. Les mâles ne présentent pas le leurre caractéristique de ces espèces mais possèdent de grandes yeux et narines. Ces dernières servent notamment à la détection des phéromones dégagées par les femelles.
 Les femelles présentent une forme très arrondie, presque sphérique dans plusieurs familles, et une tête représentant 40 % de la longueur du corps (seulement 25 % pour les espèces de forme allongée).
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (24 avr. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (24 avr. 2010) :
 famille des Caulophrynidae
 famille des Centrophrynidae
 famille des Ceratiidae
@@ -615,7 +633,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Integrated Taxonomic Information System (ITIS), www.itis.gov, CC0
